--- a/componment_info_quiry/source/Board.xlsx
+++ b/componment_info_quiry/source/Board.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="175">
   <si>
     <t>#</t>
   </si>
@@ -34,568 +34,511 @@
     <t>Ref Designator</t>
   </si>
   <si>
+    <t>20001-00001</t>
+  </si>
+  <si>
+    <t>,,,,,,,,,,,</t>
+  </si>
+  <si>
+    <t>0ohms,0ohms,0ohms,0ohms,0ohms,0ohms,0ohms,0ohms,0ohms,0ohms,0ohms,0ohms</t>
+  </si>
+  <si>
+    <t>R106,R107,R108,R109,R110,R111,R112,R113,R131,R204,R205,R206</t>
+  </si>
+  <si>
+    <t>20001-00002</t>
+  </si>
+  <si>
+    <t>,,,</t>
+  </si>
+  <si>
+    <t>10ohms,10ohms,10ohms,10ohms</t>
+  </si>
+  <si>
+    <t>R27,R28,R31,R141</t>
+  </si>
+  <si>
+    <t>20001-00003</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>100ohms,100ohms</t>
+  </si>
+  <si>
+    <t>R23,R24</t>
+  </si>
+  <si>
+    <t>20001-00004</t>
+  </si>
+  <si>
+    <t>,,,,,,,,,,,,,,,,,,,</t>
+  </si>
+  <si>
+    <t>1Kohms,1Kohms,1Kohms,1Kohms,1Kohms,1Kohms,1Kohms,1Kohms,1Kohms,1Kohms,1Kohms,1Kohms,1Kohms,1Kohms,1Kohms,1Kohms,1Kohms,1Kohms,1Kohms,1Kohms</t>
+  </si>
+  <si>
+    <t>R55,R56,R57,R87,R103,R105,R121,R129,R132,R133,R134,R136,R137,R138,R140,R157,R158,R159,R161,R162</t>
+  </si>
+  <si>
+    <t>20001-00005</t>
+  </si>
+  <si>
+    <t>,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,</t>
+  </si>
+  <si>
+    <t>10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms</t>
+  </si>
+  <si>
+    <t>R1,R3,R5,R10,R11,R12,R13,R22,R25,R26,R29,R30,R33,R39,R42,R43,R44,R45,R46,R47,R49,R54,R59,R60,R65,R67,R68,R69,R76,R77,R78,R79,R80,R81,R82,R83,R84,R85,R86,R94,R95,R130</t>
+  </si>
+  <si>
+    <t>20001-00006</t>
+  </si>
+  <si>
+    <t>100Kohms</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>20001-00012</t>
+  </si>
+  <si>
+    <t>1.2Kohms</t>
+  </si>
+  <si>
+    <t>R16</t>
+  </si>
+  <si>
+    <t>20001-00018</t>
+  </si>
+  <si>
+    <t>15Kohms</t>
+  </si>
+  <si>
+    <t>R207</t>
+  </si>
+  <si>
+    <t>20001-00027</t>
+  </si>
+  <si>
+    <t>20Kohms</t>
+  </si>
+  <si>
+    <t>R17</t>
+  </si>
+  <si>
+    <t>20001-00038</t>
+  </si>
+  <si>
+    <t>30Kohms,30Kohms</t>
+  </si>
+  <si>
+    <t>R6,R7</t>
+  </si>
+  <si>
+    <t>20001-00041</t>
+  </si>
+  <si>
+    <t>,,,,,,,,,,,,,,,</t>
+  </si>
+  <si>
+    <t>3.3Kohms,3.3Kohms,3.3Kohms,3.3Kohms,3.3Kohms,3.3Kohms,3.3Kohms,3.3Kohms,3.3Kohms,3.3Kohms,3.3Kohms,3.3Kohms,3.3Kohms,3.3Kohms,3.3Kohms,3.3Kohms</t>
+  </si>
+  <si>
+    <t>R66,R91,R93,R96,R97,R98,R99,R100,R101,R102,R104,R114,R115,R118,R124,R128</t>
+  </si>
+  <si>
+    <t>20001-00051</t>
+  </si>
+  <si>
+    <t>,,,,,,,,,,,,,,,,</t>
+  </si>
+  <si>
+    <t>4.7Kohms,4.7Kohms,4.7Kohms,4.7Kohms,4.7Kohms,4.7Kohms,4.7Kohms,4.7Kohms,4.7Kohms,4.7Kohms,4.7Kohms,4.7Kohms,4.7Kohms,4.7Kohms,4.7Kohms,4.7Kohms,4.7Kohms</t>
+  </si>
+  <si>
+    <t>R37,R38,R41,R48,R50,R51,R52,R53,R58,R61,R62,R63,R70,R71,R72,R74,R75</t>
+  </si>
+  <si>
+    <t>20001-00055</t>
+  </si>
+  <si>
+    <t>510ohms,510ohms,510ohms,510ohms,510ohms,510ohms,510ohms,510ohms,510ohms,510ohms,510ohms,510ohms</t>
+  </si>
+  <si>
+    <t>R40,R127,R135,R139,R142,R143,R144,R146,R149,R153,R156,R160</t>
+  </si>
+  <si>
+    <t>20001-00056</t>
+  </si>
+  <si>
+    <t>5.1Kohms,5.1Kohms,5.1Kohms,5.1Kohms</t>
+  </si>
+  <si>
+    <t>R2,R4,R8,R14</t>
+  </si>
+  <si>
+    <t>20001-00173</t>
+  </si>
+  <si>
+    <t>6.2Kohms</t>
+  </si>
+  <si>
+    <t>R18</t>
+  </si>
+  <si>
+    <t>20001-00192</t>
+  </si>
+  <si>
+    <t>120ohms,120ohms,120ohms,120ohms</t>
+  </si>
+  <si>
+    <t>R15,R19,R20,R21</t>
+  </si>
+  <si>
+    <t>20001-00211</t>
+  </si>
+  <si>
+    <t>1Mohms,1Mohms</t>
+  </si>
+  <si>
+    <t>R125,R126</t>
+  </si>
+  <si>
+    <t>20001-00463</t>
+  </si>
+  <si>
+    <t>,,,,,,,</t>
+  </si>
+  <si>
+    <t>R145,R147,R148,R150,R151,R152,R154,R155</t>
+  </si>
+  <si>
+    <t>20001-00480</t>
+  </si>
+  <si>
+    <t>30ohms,30ohms,30ohms,30ohms,30ohms,30ohms,30ohms,30ohms,30ohms,30ohms,30ohms,30ohms</t>
+  </si>
+  <si>
+    <t>R64,R73,R88,R89,R90,R92,R116,R117,R119,R120,R122,R123</t>
+  </si>
+  <si>
+    <t>20001-00856</t>
+  </si>
+  <si>
+    <t>24ohms,24ohms,24ohms,24ohms</t>
+  </si>
+  <si>
+    <t>R32,R34,R35,R36</t>
+  </si>
+  <si>
+    <t>21002-00030</t>
+  </si>
+  <si>
+    <t>220uF,220uF</t>
+  </si>
+  <si>
+    <t>C37,C40</t>
+  </si>
+  <si>
+    <t>21002-00033</t>
+  </si>
+  <si>
+    <t>220uF,220uF,220uF,220uF</t>
+  </si>
+  <si>
+    <t>C1,C2,C80,C85</t>
+  </si>
+  <si>
+    <t>21003-00031</t>
+  </si>
+  <si>
+    <t>10uF,10uF,10uF,10uF,10uF,10uF,10uF,10uF</t>
+  </si>
+  <si>
+    <t>C53,C95,C96,C97,C98,C99,C105,C108</t>
+  </si>
+  <si>
+    <t>21003-00037</t>
+  </si>
+  <si>
+    <t>.001uF</t>
+  </si>
+  <si>
+    <t>C88</t>
+  </si>
+  <si>
+    <t>21003-00041</t>
+  </si>
+  <si>
+    <t>.001uF,.001uF,.001uF,.001uF,.001uF,.001uF,.001uF,.001uF</t>
+  </si>
+  <si>
+    <t>C26,C41,C42,C50,C54,C74,C75,C122</t>
+  </si>
+  <si>
+    <t>21003-00042</t>
+  </si>
+  <si>
+    <t>.01uF</t>
+  </si>
+  <si>
+    <t>C34</t>
+  </si>
+  <si>
+    <t>21003-00043</t>
+  </si>
+  <si>
+    <t>,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,</t>
+  </si>
+  <si>
+    <t>.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF</t>
+  </si>
+  <si>
+    <t>C3,C4,C5,C6,C7,C8,C9,C10,C11,C12,C13,C14,C15,C16,C17,C18,C19,C20,C21,C22,C25,C27,C28,C31,C32,C33,C36,C38,C39,C43,C44,C45,C46,C47,C48,C49,C52,C56,C79,C101,C121</t>
+  </si>
+  <si>
+    <t>21003-00049</t>
+  </si>
+  <si>
+    <t>,,,,,,,,,,,,,,,,,,,,,,,,,,,,,</t>
+  </si>
+  <si>
+    <t>100pF,100pF,100pF,100pF,100pF,100pF,100pF,100pF,100pF,100pF,100pF,100pF,100pF,100pF,100pF,100pF,100pF,100pF,100pF,100pF,100pF,100pF,100pF,100pF,100pF,100pF,100pF,100pF,100pF,100pF</t>
+  </si>
+  <si>
+    <t>C23,C24,C29,C30,C35,C51,C55,C57,C58,C65,C66,C76,C77,C78,C81,C82,C83,C84,C86,C87,C92,C93,C94,C100,C107,C114,C115,C116,C117,C123</t>
+  </si>
+  <si>
+    <t>21003-00076</t>
+  </si>
+  <si>
+    <t>C68,C69,C70,C71,C90,C91,C111,C112</t>
+  </si>
+  <si>
+    <t>21003-00124</t>
+  </si>
+  <si>
+    <t>C59,C60,C61,C62,C63,C64,C127,C128</t>
+  </si>
+  <si>
+    <t>21003-00300</t>
+  </si>
+  <si>
+    <t>,,,,</t>
+  </si>
+  <si>
+    <t>220pF,220pF,220pF,220pF,220pF</t>
+  </si>
+  <si>
+    <t>C67,C72,C73,C102,C103</t>
+  </si>
+  <si>
+    <t>21006-00013</t>
+  </si>
+  <si>
+    <t>.0047uF,.0047uF,.0047uF,.0047uF,.0047uF</t>
+  </si>
+  <si>
+    <t>C89,C104,C106,C109,C110</t>
+  </si>
+  <si>
+    <t>22001-00023</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>22001-00034</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>22003-00015</t>
+  </si>
+  <si>
+    <t>,,,,,,,,,,,,,,,,,,,,,,,,,,</t>
+  </si>
+  <si>
+    <t>Z1,Z3,Z4,Z5,Z6,Z7,Z8,Z9,Z10,Z11,Z12,Z13,Z14,Z15,Z16,Z17,Z18,Z19,Z20,Z21,Z22,Z23,Z26,Z27,Z28,Z29,Z30</t>
+  </si>
+  <si>
+    <t>22003-00025</t>
+  </si>
+  <si>
+    <t>Z2</t>
+  </si>
+  <si>
+    <t>22003-00035</t>
+  </si>
+  <si>
+    <t>Z31,Z32</t>
+  </si>
+  <si>
+    <t>22005-00002</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>22005-00066</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>22006-00021</t>
+  </si>
+  <si>
+    <t>LED1</t>
+  </si>
+  <si>
+    <t>22007-00013</t>
+  </si>
+  <si>
     <t>,,,,,</t>
   </si>
   <si>
-    <t>20001-00003</t>
-  </si>
-  <si>
-    <t>,,,,,,,,,,,,</t>
-  </si>
-  <si>
-    <t>100ohms,100ohms,100ohms,100ohms,100ohms,100ohms,100ohms,100ohms,100ohms,100ohms,100ohms,100ohms,100ohms</t>
-  </si>
-  <si>
-    <t>R357,R358,R359,R360,R361,R362,R363,R364,R365,R366,R367,R400,R401</t>
-  </si>
-  <si>
-    <t>20001-00004</t>
-  </si>
-  <si>
-    <t>,,,,,,,</t>
-  </si>
-  <si>
-    <t>1Kohms,1Kohms,1Kohms,1Kohms,1Kohms,1Kohms,1Kohms,1Kohms</t>
-  </si>
-  <si>
-    <t>R7,R9,R103,R104,R135,R137,R139,R141</t>
-  </si>
-  <si>
-    <t>20001-00005</t>
-  </si>
-  <si>
-    <t>,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,</t>
-  </si>
-  <si>
-    <t>10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms,10Kohms</t>
-  </si>
-  <si>
-    <t>R11,R13,R14,R15,R16,R17,R18,R19,R20,R21,R22,R23,R24,R25,R26,R27,R28,R29,R30,R31,R32,R33,R34,R35,R36,R37,R38,R39,R40,R41,R42,R43,R47,R48,R49,R50,R51,R52,R53,R54,R55,R68,R69,R70,R71,R73,R74,R75,R76,R77,R78,R79,R80,R81,R82,R83,R84,R85,R86,R87,R88,R89,R90,R91,R92,R93,R94,R97,R98,R99,R100,R101,R102,R105,R106,R108,R110,R111,R112,R113,R114,R115,R117,R118,R119,R120,R121,R122,R123,R124,R125,R126,R127,R128,R130,R131,R132,R133,R134,R136,R138,R140,R142,R143,R144,R145,R146,R147,R148,R149,R150,R151,R156,R157,R158,R159,R160,R161,R162,R171,R172,R173,R174,R175,R176,R177,R179,R180,R181,R182,R183,R184,R185,R186,R187,R188,R189,R192,R193,R194,R195,R197,R198,R199,R200,R201,R202,R203,R204,R223,R224,R227,R228,R259,R260,R261,R262,R263,R264,R265,R266,R267,R268,R269,R270,R271,R272,R287,R288,R303,R304,R305,R306,R307,R308,R309,R310,R311,R312,R313,R314,R315,R316,R317,R318,R319,R350,R352,R353,R354,R355,R368,R413</t>
-  </si>
-  <si>
-    <t>20001-00013</t>
-  </si>
-  <si>
-    <t>12Kohms</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>20001-00017</t>
-  </si>
-  <si>
-    <t>,,,,,,</t>
-  </si>
-  <si>
-    <t>1.5Kohms,1.5Kohms,1.5Kohms,1.5Kohms,1.5Kohms,1.5Kohms,1.5Kohms</t>
-  </si>
-  <si>
-    <t>R384,R385,R386,R387,R388,R389,R390</t>
-  </si>
-  <si>
-    <t>20001-00018</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>15Kohms,15Kohms</t>
-  </si>
-  <si>
-    <t>R3,R129</t>
-  </si>
-  <si>
-    <t>20001-00025</t>
-  </si>
-  <si>
-    <t>,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,</t>
-  </si>
-  <si>
-    <t>200ohms,200ohms,200ohms,200ohms,200ohms,200ohms,200ohms,200ohms,200ohms,200ohms,200ohms,200ohms,200ohms,200ohms,200ohms,200ohms,200ohms,200ohms,200ohms,200ohms,200ohms,200ohms,200ohms,200ohms,200ohms,200ohms,200ohms,200ohms,200ohms,200ohms,200ohms,200ohms,200ohms,200ohms,200ohms,200ohms,200ohms,200ohms,200ohms,200ohms,200ohms,200ohms,200ohms,200ohms,200ohms,200ohms,200ohms,200ohms,200ohms,200ohms,200ohms,200ohms,200ohms,200ohms,200ohms,200ohms</t>
-  </si>
-  <si>
-    <t>R64,R65,R66,R67,R107,R109,R116,R163,R164,R165,R166,R167,R168,R169,R170,R217,R218,R219,R220,R221,R222,R235,R236,R237,R238,R239,R240,R293,R294,R295,R296,R297,R298,R299,R300,R301,R302,R320,R321,R322,R351,R369,R370,R371,R372,R373,R374,R375,R376,R377,R378,R379,R405,R406,R407,R408</t>
-  </si>
-  <si>
-    <t>20001-00026</t>
-  </si>
-  <si>
-    <t>2Kohms,2Kohms</t>
-  </si>
-  <si>
-    <t>R8,R323</t>
-  </si>
-  <si>
-    <t>20001-00030</t>
-  </si>
-  <si>
-    <t>2.2Kohms</t>
-  </si>
-  <si>
-    <t>R196</t>
-  </si>
-  <si>
-    <t>20001-00037</t>
-  </si>
-  <si>
-    <t>3Kohms,3Kohms,3Kohms,3Kohms,3Kohms,3Kohms,3Kohms,3Kohms</t>
-  </si>
-  <si>
-    <t>R191,R391,R392,R393,R394,R395,R396,R397</t>
-  </si>
-  <si>
-    <t>20001-00041</t>
-  </si>
-  <si>
-    <t>,,,</t>
-  </si>
-  <si>
-    <t>3.3Kohms,3.3Kohms,3.3Kohms,3.3Kohms</t>
-  </si>
-  <si>
-    <t>R416,R417,R418,R419</t>
-  </si>
-  <si>
-    <t>20001-00051</t>
-  </si>
-  <si>
-    <t>4.7Kohms,4.7Kohms,4.7Kohms,4.7Kohms,4.7Kohms,4.7Kohms</t>
-  </si>
-  <si>
-    <t>R10,R12,R72,R356,R398,R399</t>
-  </si>
-  <si>
-    <t>20001-00058</t>
-  </si>
-  <si>
-    <t>510Kohms,510Kohms,510Kohms,510Kohms,510Kohms,510Kohms</t>
-  </si>
-  <si>
-    <t>R253,R254,R255,R256,R257,R258</t>
-  </si>
-  <si>
-    <t>20001-00066</t>
-  </si>
-  <si>
-    <t>,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,</t>
-  </si>
-  <si>
-    <t>6.8Kohms,6.8Kohms,6.8Kohms,6.8Kohms,6.8Kohms,6.8Kohms,6.8Kohms,6.8Kohms,6.8Kohms,6.8Kohms,6.8Kohms,6.8Kohms,6.8Kohms,6.8Kohms,6.8Kohms,6.8Kohms,6.8Kohms,6.8Kohms,6.8Kohms,6.8Kohms,6.8Kohms,6.8Kohms,6.8Kohms,6.8Kohms,6.8Kohms,6.8Kohms,6.8Kohms,6.8Kohms,6.8Kohms,6.8Kohms,6.8Kohms,6.8Kohms,6.8Kohms,6.8Kohms,6.8Kohms,6.8Kohms,6.8Kohms,6.8Kohms,6.8Kohms,6.8Kohms,6.8Kohms,6.8Kohms,6.8Kohms,6.8Kohms,6.8Kohms,6.8Kohms,6.8Kohms,6.8Kohms</t>
-  </si>
-  <si>
-    <t>R56,R57,R58,R59,R60,R61,R62,R63,R95,R96,R152,R153,R154,R155,R205,R206,R207,R208,R209,R210,R211,R212,R213,R214,R215,R216,R231,R232,R273,R274,R275,R276,R277,R278,R279,R280,R281,R282,R283,R284,R285,R286,R289,R290,R291,R292,R403,R404</t>
-  </si>
-  <si>
-    <t>20001-00118</t>
-  </si>
-  <si>
-    <t>1Mohms,1Mohms,1Mohms,1Mohms,1Mohms,1Mohms</t>
-  </si>
-  <si>
-    <t>R225,R226,R229,R230,R233,R234</t>
-  </si>
-  <si>
-    <t>20001-00167</t>
-  </si>
-  <si>
-    <t>,,,,,,,,,,,</t>
-  </si>
-  <si>
-    <t>51Kohms,51Kohms,51Kohms,51Kohms,51Kohms,51Kohms,51Kohms,51Kohms,51Kohms,51Kohms,51Kohms,51Kohms</t>
-  </si>
-  <si>
-    <t>R241,R242,R243,R244,R245,R246,R247,R248,R249,R250,R251,R252</t>
-  </si>
-  <si>
-    <t>20001-00292</t>
-  </si>
-  <si>
-    <t>270Kohms,270Kohms,270Kohms,270Kohms,270Kohms,270Kohms</t>
-  </si>
-  <si>
-    <t>R409,R410,R411,R412,R414,R415</t>
-  </si>
-  <si>
-    <t>20001-00314</t>
-  </si>
-  <si>
-    <t>49.9Kohms,49.9Kohms</t>
-  </si>
-  <si>
-    <t>R380,R381</t>
-  </si>
-  <si>
-    <t>20001-00345</t>
-  </si>
-  <si>
-    <t>5.1ohms</t>
-  </si>
-  <si>
-    <t>R178</t>
-  </si>
-  <si>
-    <t>20001-00455</t>
-  </si>
-  <si>
-    <t>1Kohms,1Kohms,1Kohms,1Kohms,1Kohms,1Kohms</t>
-  </si>
-  <si>
-    <t>R1,R4,R5,R44,R45,R46</t>
-  </si>
-  <si>
-    <t>20001-00480</t>
-  </si>
-  <si>
-    <t>30ohms,30ohms,30ohms,30ohms,30ohms,30ohms,30ohms,30ohms,30ohms,30ohms,30ohms,30ohms</t>
-  </si>
-  <si>
-    <t>R420,R421,R422,R423,R424,R425,R426,R427,R428,R429,R430,R431</t>
-  </si>
-  <si>
-    <t>20001-00856</t>
-  </si>
-  <si>
-    <t>24ohms,24ohms</t>
-  </si>
-  <si>
-    <t>R6,R190</t>
-  </si>
-  <si>
-    <t>20005-00066</t>
-  </si>
-  <si>
-    <t>10Kohms</t>
-  </si>
-  <si>
-    <t>RT1</t>
-  </si>
-  <si>
-    <t>21001-00124</t>
-  </si>
-  <si>
-    <t>470mF</t>
-  </si>
-  <si>
-    <t>C222</t>
-  </si>
-  <si>
-    <t>21002-00006</t>
-  </si>
-  <si>
-    <t>,,,,</t>
-  </si>
-  <si>
-    <t>100uF,100uF,100uF,100uF,100uF</t>
-  </si>
-  <si>
-    <t>C196,C219,C220,C221,C277</t>
-  </si>
-  <si>
-    <t>21002-00012</t>
-  </si>
-  <si>
-    <t>100uF,100uF,100uF,100uF</t>
-  </si>
-  <si>
-    <t>C16,C17,C18,C19</t>
-  </si>
-  <si>
-    <t>21002-00030</t>
-  </si>
-  <si>
-    <t>220uF,220uF</t>
-  </si>
-  <si>
-    <t>C14,C15</t>
-  </si>
-  <si>
-    <t>21002-00033</t>
-  </si>
-  <si>
-    <t>220uF,220uF,220uF,220uF</t>
-  </si>
-  <si>
-    <t>C193,C194,C195,C223</t>
-  </si>
-  <si>
-    <t>21003-00004</t>
-  </si>
-  <si>
-    <t>2.2uF,2.2uF</t>
-  </si>
-  <si>
-    <t>C160,C161</t>
-  </si>
-  <si>
-    <t>21003-00041</t>
-  </si>
-  <si>
-    <t>,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,</t>
-  </si>
-  <si>
-    <t>.001uF,.001uF,.001uF,.001uF,.001uF,.001uF,.001uF,.001uF,.001uF,.001uF,.001uF,.001uF,.001uF,.001uF,.001uF,.001uF,.001uF,.001uF,.001uF,.001uF,.001uF,.001uF,.001uF,.001uF,.001uF,.001uF,.001uF,.001uF,.001uF,.001uF,.001uF,.001uF,.001uF,.001uF,.001uF,.001uF,.001uF,.001uF,.001uF,.001uF,.001uF,.001uF,.001uF,.001uF,.001uF,.001uF,.001uF,.001uF,.001uF,.001uF,.001uF,.001uF,.001uF,.001uF,.001uF,.001uF,.001uF,.001uF,.001uF,.001uF,.001uF,.001uF,.001uF,.001uF,.001uF,.001uF</t>
-  </si>
-  <si>
-    <t>C86,C87,C92,C94,C101,C142,C143,C144,C146,C147,C148,C149,C163,C165,C166,C169,C170,C171,C172,C173,C174,C200,C201,C202,C203,C204,C205,C206,C207,C208,C209,C215,C216,C227,C228,C229,C236,C237,C238,C239,C240,C241,C242,C243,C244,C245,C246,C247,C248,C249,C250,C251,C252,C253,C254,C255,C256,C257,C258,C259,C260,C261,C262,C308,C309,C310</t>
-  </si>
-  <si>
-    <t>21003-00042</t>
-  </si>
-  <si>
-    <t>.01uF,.01uF,.01uF,.01uF,.01uF,.01uF,.01uF,.01uF,.01uF,.01uF,.01uF,.01uF,.01uF,.01uF,.01uF,.01uF,.01uF,.01uF,.01uF,.01uF,.01uF,.01uF,.01uF,.01uF,.01uF,.01uF,.01uF,.01uF,.01uF,.01uF,.01uF,.01uF,.01uF,.01uF,.01uF,.01uF,.01uF,.01uF,.01uF,.01uF,.01uF,.01uF,.01uF,.01uF,.01uF,.01uF,.01uF,.01uF</t>
-  </si>
-  <si>
-    <t>C44,C50,C51,C53,C54,C70,C71,C76,C77,C78,C79,C80,C81,C82,C83,C91,C93,C96,C97,C98,C99,C100,C102,C103,C104,C105,C106,C107,C108,C129,C134,C135,C136,C137,C138,C139,C140,C141,C150,C162,C302,C303,C311,C312,C313,C314,C315,C316</t>
-  </si>
-  <si>
-    <t>21003-00043</t>
-  </si>
-  <si>
-    <t>,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,</t>
-  </si>
-  <si>
-    <t>.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF,.1uF</t>
-  </si>
-  <si>
-    <t>C1,C2,C3,C4,C5,C6,C7,C8,C9,C10,C11,C12,C13,C20,C21,C22,C23,C24,C25,C26,C27,C28,C29,C30,C31,C32,C33,C34,C35,C36,C37,C38,C39,C43,C45,C46,C49,C52,C55,C56,C57,C58,C59,C60,C61,C62,C63,C64,C65,C66,C67,C68,C72,C73,C74,C75,C89,C95,C109,C110,C111,C112,C113,C114,C115,C116,C117,C118,C119,C120,C121,C122,C123,C124,C125,C126,C127,C128,C130,C131,C151,C152,C153,C154,C155,C156,C157,C158,C159,C210,C224,C225,C232,C233,C234,C263,C264,C268,C269,C270,C271,C272,C273,C274,C275,C276,C288,C289,C292,C293,C294,C295,C296,C299,C300,C301,C306,C307</t>
-  </si>
-  <si>
-    <t>21003-00051</t>
-  </si>
-  <si>
-    <t>20pF,20pF,20pF,20pF,20pF,20pF,20pF,20pF,20pF,20pF,20pF,20pF</t>
-  </si>
-  <si>
-    <t>C84,C85,C145,C164,C167,C168,C198,C211,C212,C213,C214,C217</t>
-  </si>
-  <si>
-    <t>21003-00055</t>
-  </si>
-  <si>
-    <t>1uF</t>
-  </si>
-  <si>
-    <t>C305</t>
-  </si>
-  <si>
-    <t>21003-00116</t>
-  </si>
-  <si>
-    <t>22pF,22pF,22pF,22pF</t>
-  </si>
-  <si>
-    <t>C47,C48,C90,C190</t>
-  </si>
-  <si>
-    <t>21003-00124</t>
-  </si>
-  <si>
-    <t>,,,,,,,,,,</t>
-  </si>
-  <si>
-    <t>10uF,10uF,10uF,10uF,10uF,10uF,10uF,10uF,10uF,10uF,10uF</t>
-  </si>
-  <si>
-    <t>C40,C41,C42,C69,C88,C132,C133,C197,C199,C290,C291</t>
-  </si>
-  <si>
-    <t>21003-00171</t>
-  </si>
-  <si>
-    <t>5pF,5pF</t>
-  </si>
-  <si>
-    <t>C191,C192</t>
-  </si>
-  <si>
-    <t>21003-00206</t>
-  </si>
-  <si>
-    <t>,,,,,,,,,,,,,,</t>
-  </si>
-  <si>
-    <t>1uF,1uF,1uF,1uF,1uF,1uF,1uF,1uF,1uF,1uF,1uF,1uF,1uF,1uF,1uF</t>
-  </si>
-  <si>
-    <t>C175,C176,C177,C178,C179,C180,C181,C182,C183,C184,C185,C186,C187,C188,C189</t>
-  </si>
-  <si>
-    <t>21003-00263</t>
-  </si>
-  <si>
-    <t>100pF,100pF,100pF,100pF,100pF,100pF,100pF,100pF,100pF,100pF,100pF,100pF,100pF</t>
-  </si>
-  <si>
-    <t>C218,C235,C265,C266,C278,C279,C280,C281,C282,C283,C284,C285,C286</t>
-  </si>
-  <si>
-    <t>22001-00011</t>
-  </si>
-  <si>
-    <t>,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,</t>
-  </si>
-  <si>
-    <t>D24,D25,D26,D27,D32,D33,D36,D40,D41,D42,D43,D44,D45,D46,D55,D56,D57,D58,D61,D62,D64,D69,D70,D71,D72,D73,D74,D75,D76,D77,D78,D79,D80,D81,D82,D84,D85,D86,D87,D92,D93</t>
-  </si>
-  <si>
-    <t>22002-00016</t>
-  </si>
-  <si>
-    <t>Z1,Z2,Z3,Z4,Z5,Z6</t>
-  </si>
-  <si>
-    <t>22005-00007</t>
-  </si>
-  <si>
-    <t>,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,</t>
-  </si>
-  <si>
-    <t>D2,D3,D4,D5,D6,D7,D8,D9,D10,D11,D12,D13,D14,D15,D16,D17,D18,D19,D20,D21,D22,D23,D28,D29,D30,D31,D34,D35,D37,D38,D39,D47,D48,D49,D50,D51,D52,D53,D54,D59,D60,D63,D65,D66,D67,D68,D96,D97,D98</t>
-  </si>
-  <si>
-    <t>22005-00020</t>
-  </si>
-  <si>
-    <t>D99</t>
-  </si>
-  <si>
-    <t>22006-00021</t>
-  </si>
-  <si>
-    <t>,,</t>
-  </si>
-  <si>
-    <t>LED1,LED2,LED3</t>
-  </si>
-  <si>
-    <t>22007-00013</t>
-  </si>
-  <si>
-    <t>Q3,Q4</t>
-  </si>
-  <si>
-    <t>22007-00014</t>
-  </si>
-  <si>
-    <t>Q2</t>
-  </si>
-  <si>
-    <t>22007-00021</t>
-  </si>
-  <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>22010-00003</t>
-  </si>
-  <si>
-    <t>X2</t>
-  </si>
-  <si>
-    <t>22010-00023</t>
-  </si>
-  <si>
-    <t>X3</t>
-  </si>
-  <si>
-    <t>22010-00024</t>
-  </si>
-  <si>
-    <t>X1</t>
-  </si>
-  <si>
-    <t>23002-00026</t>
-  </si>
-  <si>
-    <t>U19</t>
-  </si>
-  <si>
-    <t>23003-00070</t>
-  </si>
-  <si>
-    <t>U21</t>
-  </si>
-  <si>
-    <t>23003-00218</t>
-  </si>
-  <si>
-    <t>U14,U15,U16,U17,U18,U20,U27,U28</t>
-  </si>
-  <si>
-    <t>23003-00255</t>
-  </si>
-  <si>
-    <t>U22,U24,U25,U32</t>
-  </si>
-  <si>
-    <t>23004-00028</t>
-  </si>
-  <si>
-    <t>U29,U30</t>
-  </si>
-  <si>
-    <t>23004-00042</t>
-  </si>
-  <si>
-    <t>U2,U3</t>
-  </si>
-  <si>
-    <t>23004-00103</t>
+    <t>Q1,Q3,Q6,Q9,Q14,Q19</t>
+  </si>
+  <si>
+    <t>22009-00015</t>
+  </si>
+  <si>
+    <t>PC2,PC3,PC4,PC6,PC7,PC8,PC9,PC10,PC13,PC14,PC15,PC16,PC17,PC18,PC21,PC24</t>
+  </si>
+  <si>
+    <t>22009-00067</t>
+  </si>
+  <si>
+    <t>PC1,PC5,PC11,PC12</t>
+  </si>
+  <si>
+    <t>23003-00078</t>
+  </si>
+  <si>
+    <t>U8</t>
+  </si>
+  <si>
+    <t>23004-00044</t>
+  </si>
+  <si>
+    <t>U2,U3,U6,U7</t>
+  </si>
+  <si>
+    <t>23004-00089</t>
+  </si>
+  <si>
+    <t>U4,U5</t>
+  </si>
+  <si>
+    <t>23004-00313</t>
   </si>
   <si>
     <t>U1</t>
   </si>
   <si>
-    <t>23004-00106</t>
-  </si>
-  <si>
-    <t>,,,,,,,,</t>
-  </si>
-  <si>
-    <t>U5,U6,U7,U8,U9,U10,U11,U13,U23</t>
-  </si>
-  <si>
-    <t>23004-00446</t>
-  </si>
-  <si>
-    <t>U31</t>
+    <t>23004-00462</t>
+  </si>
+  <si>
+    <t>U11</t>
+  </si>
+  <si>
+    <t>24002-00291</t>
+  </si>
+  <si>
+    <t>TR1</t>
+  </si>
+  <si>
+    <t>25002-00008</t>
+  </si>
+  <si>
+    <t>39uH</t>
+  </si>
+  <si>
+    <t>L11</t>
+  </si>
+  <si>
+    <t>25003-00005</t>
+  </si>
+  <si>
+    <t>L1,L2,L7,L10</t>
   </si>
   <si>
     <t>25011-00010</t>
   </si>
   <si>
-    <t>L1,L2</t>
+    <t>L3,L4,L5,L6,L8,L9,L12,L13</t>
+  </si>
+  <si>
+    <t>29003-00085</t>
+  </si>
+  <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>32004-00093</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>32004-00136</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>32006-00005</t>
+  </si>
+  <si>
+    <t>GDT1,GDT2,GDT3,GDT4</t>
   </si>
   <si>
     <t>36001-00017</t>
   </si>
   <si>
-    <t>J1,J2,J3,J4</t>
+    <t>J1</t>
   </si>
   <si>
     <t>36002-00018</t>
   </si>
   <si>
-    <t>CN7</t>
-  </si>
-  <si>
-    <t>36002-00022</t>
-  </si>
-  <si>
-    <t>CN1</t>
-  </si>
-  <si>
-    <t>36002-00023</t>
-  </si>
-  <si>
-    <t>CN2</t>
+    <t>CN13</t>
+  </si>
+  <si>
+    <t>36002-00065</t>
+  </si>
+  <si>
+    <t>CN1,CN2,CN3,CN4,CN5,CN6</t>
   </si>
   <si>
     <t>36002-00114</t>
   </si>
   <si>
-    <t>CN6</t>
+    <t>CN7,CN8</t>
+  </si>
+  <si>
+    <t>36002-00354</t>
+  </si>
+  <si>
+    <t>CN11</t>
+  </si>
+  <si>
+    <t>36002-00949</t>
+  </si>
+  <si>
+    <t>CN9</t>
+  </si>
+  <si>
+    <t>63003-00006</t>
+  </si>
+  <si>
+    <t>H1,H2,H3,H4</t>
   </si>
 </sst>
 </file>
@@ -946,11 +889,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63:XFD63"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
@@ -979,72 +920,75 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>193</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
         <v>19</v>
       </c>
       <c r="E5" t="s">
@@ -1056,10 +1000,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
@@ -1076,1103 +1020,1036 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
         <v>26</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>27</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>28</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
         <v>30</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>31</v>
-      </c>
-      <c r="E8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
         <v>34</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" t="s">
         <v>37</v>
-      </c>
-      <c r="E10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
         <v>40</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" t="s">
         <v>43</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>44</v>
-      </c>
-      <c r="E12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" t="s">
         <v>47</v>
       </c>
-      <c r="D13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>48</v>
-      </c>
-      <c r="F13" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
         <v>50</v>
       </c>
-      <c r="D14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>51</v>
-      </c>
-      <c r="F14" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
         <v>53</v>
       </c>
-      <c r="D15" t="s">
+      <c r="F15" t="s">
         <v>54</v>
-      </c>
-      <c r="E15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" t="s">
         <v>57</v>
-      </c>
-      <c r="D16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" t="s">
         <v>60</v>
-      </c>
-      <c r="D17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="E19" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F19" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>67</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D21" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F21" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D22" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="E22" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F22" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>82</v>
+        <v>79</v>
+      </c>
+      <c r="D24" t="s">
+        <v>65</v>
       </c>
       <c r="E24" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F24" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E25" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F25" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D26" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="E26" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F26" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>92</v>
-      </c>
-      <c r="D27" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="E27" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F27" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="E28" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F28" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" t="s">
+        <v>97</v>
+      </c>
+      <c r="F29" t="s">
         <v>98</v>
-      </c>
-      <c r="D29" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" t="s">
-        <v>99</v>
-      </c>
-      <c r="F29" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D30" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="E30" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="F30" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D31" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="E31" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="F31" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D32" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="E32" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F32" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33">
-        <v>118</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D33" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E33" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F33" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>115</v>
-      </c>
-      <c r="D34" t="s">
-        <v>61</v>
-      </c>
-      <c r="E34" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F34" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>118</v>
-      </c>
-      <c r="E35" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F35" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="C36" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D36" t="s">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="E36" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F36" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>124</v>
-      </c>
-      <c r="D37" t="s">
-        <v>125</v>
-      </c>
-      <c r="E37" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="F37" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38">
         <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D38" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E38" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="F38" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>131</v>
-      </c>
-      <c r="D39" t="s">
-        <v>132</v>
-      </c>
-      <c r="E39" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="F39" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>135</v>
-      </c>
-      <c r="D40" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="F40" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>138</v>
-      </c>
-      <c r="D41" t="s">
-        <v>139</v>
-      </c>
-      <c r="E41" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="F41" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42">
         <v>6</v>
       </c>
       <c r="C42" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="D42" t="s">
-        <v>6</v>
+        <v>128</v>
       </c>
       <c r="E42" t="s">
-        <v>6</v>
+        <v>128</v>
       </c>
       <c r="F42" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="D43" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="F43" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>146</v>
+        <v>132</v>
+      </c>
+      <c r="D44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" t="s">
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>148</v>
-      </c>
-      <c r="D45" t="s">
-        <v>149</v>
-      </c>
-      <c r="E45" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="F45" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C46" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="D46" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>153</v>
+        <v>138</v>
+      </c>
+      <c r="D47" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" t="s">
+        <v>15</v>
       </c>
       <c r="F47" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="F48" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="F49" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="F50" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>161</v>
+        <v>146</v>
+      </c>
+      <c r="E51" t="s">
+        <v>147</v>
       </c>
       <c r="F51" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C52" t="s">
-        <v>163</v>
+        <v>149</v>
+      </c>
+      <c r="D52" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" t="s">
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>165</v>
+        <v>151</v>
+      </c>
+      <c r="D53" t="s">
+        <v>65</v>
+      </c>
+      <c r="E53" t="s">
+        <v>65</v>
       </c>
       <c r="F53" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B54">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>167</v>
-      </c>
-      <c r="D54" t="s">
-        <v>12</v>
-      </c>
-      <c r="E54" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="F54" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B55">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>169</v>
-      </c>
-      <c r="D55" t="s">
-        <v>44</v>
-      </c>
-      <c r="E55" t="s">
-        <v>44</v>
+        <v>155</v>
       </c>
       <c r="F55" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>171</v>
-      </c>
-      <c r="D56" t="s">
-        <v>27</v>
-      </c>
-      <c r="E56" t="s">
-        <v>27</v>
+        <v>157</v>
       </c>
       <c r="F56" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B57">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C57" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="D57" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B58">
         <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="F58" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B59">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>177</v>
-      </c>
-      <c r="D59" t="s">
-        <v>178</v>
-      </c>
-      <c r="E59" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="F59" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C60" t="s">
-        <v>180</v>
+        <v>165</v>
+      </c>
+      <c r="D60" t="s">
+        <v>128</v>
+      </c>
+      <c r="E60" t="s">
+        <v>128</v>
       </c>
       <c r="F60" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B61">
         <v>2</v>
       </c>
       <c r="C61" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="D61" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E61" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F61" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B62">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>184</v>
-      </c>
-      <c r="D62" t="s">
-        <v>44</v>
-      </c>
-      <c r="E62" t="s">
-        <v>44</v>
+        <v>169</v>
       </c>
       <c r="F62" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="F63" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C64" t="s">
-        <v>188</v>
+        <v>173</v>
+      </c>
+      <c r="D64" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" t="s">
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>69</v>
-      </c>
-      <c r="B65">
-        <v>1</v>
-      </c>
-      <c r="C65" t="s">
-        <v>190</v>
-      </c>
-      <c r="F65" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>70</v>
-      </c>
-      <c r="B66">
-        <v>1</v>
-      </c>
-      <c r="C66" t="s">
-        <v>192</v>
-      </c>
-      <c r="F66" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
